--- a/medicine/Enfance/Tom_Egeland/Tom_Egeland.xlsx
+++ b/medicine/Enfance/Tom_Egeland/Tom_Egeland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tom Egeland, né le 8 juillet 1959 à Oslo en Norvège, est un écrivain norvégien, auteur de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1988, il publie son premier roman, Stien mot fortiden. En 2009, il fait paraître Lucifers evangelium avec lequel il remporte le prix Riverton 2009. En 2001, il commence une série mettant en scène Bjorn Beltø.
 Il écrit également de la littérature d'enfance et de jeunesse dont Katakombens hemmelighet paru en 2013 avec lequel il est lauréat du Arks barnebokpris (no) 2013
@@ -545,24 +559,104 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Bjorn Beltø
-Sirkelens ende (2001)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Bjorn Beltø</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sirkelens ende (2001)
 La Fin du cercle, City éditions (2006)  (ISBN 2-35288-009-2)
 Paktens voktere (2007)
 Les Gardiens de l'Alliance, City éditions (2009)  (ISBN 978-2-35288-304-3)
 Lucifers evangelium (2009)
 Nostradamus Testamente (2012)
-Den 13. disippel (2014)
-Autres romans
-Stien mot fortiden (1988)
+Den 13. disippel (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tom_Egeland</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom_Egeland</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stien mot fortiden (1988)
 Skyggelandet (1993)
 Trollspeilet (1997)
 Åndebrettet (2004)
 Ulvenatten (2005)
-Fedrenes løgner (2010)
-Littérature d'enfance et de jeunesse
-Piken i speilet (2007)
+Fedrenes løgner (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tom_Egeland</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom_Egeland</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Piken i speilet (2007)
 Katakombens hemmelighet (2013)
 Skatten fra Miklagard (2014)
 Mumiens mysterium (2015)
@@ -570,35 +664,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tom_Egeland</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tom_Egeland</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Riverton 2009 pour Lucifers evangelium[1]
-Prix EuropaPrix Europa 2009 pour Trollspeilet[2]
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Riverton 2009 pour Lucifers evangelium
+Prix EuropaPrix Europa 2009 pour Trollspeilet
 Arks barnebokpris (no) 2013 pour Katakombens hemmelighet
 Mads Wiel Nygaards legat (no) 2013
 Sagaprisen (no) 2015</t>
